--- a/4_기타/통계의 이해.xlsx
+++ b/4_기타/통계의 이해.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조근하\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89BBCE4C-D6F6-4879-B4A5-0B589C0996FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E3EED-373F-4BE5-8808-E83FAA258B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D98E4919-A57D-430A-8ED3-41A15F0FA1B2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>height (feet)</t>
   </si>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>VIF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주성분분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,6 +152,18 @@
       </rPr>
       <t>평균</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마하놀라비스 거리(정규화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주성분분석(정규화)_eigen vector, eigen value 의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -473,6 +478,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,21 +797,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3181E06-5230-49D5-A1EA-EEA38C34AEF3}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.69921875" customWidth="1"/>
-    <col min="2" max="2" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.09765625" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.3984375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.09765625" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.3984375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -826,11 +834,11 @@
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -864,55 +872,57 @@
         <v>15</v>
       </c>
       <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
+      <c r="L2" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>6</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>180</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>12</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <f>B3-B$11</f>
         <v>0.36249999999999982</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <f>C3-C$11</f>
         <v>25.625</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <f>D3-D$11</f>
         <v>2.625</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <f>E3^2</f>
         <v>0.13140624999999986</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <f t="shared" ref="I3:J10" si="0">F3^2</f>
         <v>656.640625</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <f t="shared" si="0"/>
         <v>6.890625</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <f>E3/H$13</f>
         <v>1.156968088398749</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="21">
         <f t="shared" ref="L3:M10" si="1">F3/SQRT(I3)</f>
         <v>1</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -921,48 +931,48 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>5.92</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>190</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>11</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <f t="shared" ref="E4:G10" si="2">B4-B$11</f>
         <v>0.28249999999999975</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <f t="shared" si="2"/>
         <v>35.625</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <f t="shared" si="2"/>
         <v>1.625</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <f t="shared" ref="H4:H10" si="3">E4^2</f>
         <v>7.9806249999999856E-2</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <f t="shared" si="0"/>
         <v>1269.140625</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <f t="shared" si="0"/>
         <v>2.640625</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <f>E4/H$13</f>
         <v>0.90163719992454205</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -971,48 +981,48 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>5.58</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>170</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>12</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <f t="shared" si="2"/>
         <v>-5.7500000000000107E-2</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f t="shared" si="2"/>
         <v>15.625</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <f t="shared" si="2"/>
         <v>2.625</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <f t="shared" si="3"/>
         <v>3.3062500000000123E-3</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f t="shared" si="0"/>
         <v>244.140625</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <f t="shared" si="0"/>
         <v>6.890625</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <f>E5/H$13</f>
         <v>-0.18351907609083648</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1021,48 +1031,48 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>5.93</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>165</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>10</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <f t="shared" si="2"/>
         <v>0.29249999999999954</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <f t="shared" si="2"/>
         <v>10.625</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <f t="shared" si="3"/>
         <v>8.5556249999999737E-2</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f t="shared" si="0"/>
         <v>112.890625</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <f t="shared" si="0"/>
         <v>0.390625</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <f>E6/H$13</f>
         <v>0.93355356098381714</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1071,48 +1081,48 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>100</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>6</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <f t="shared" si="2"/>
         <v>-0.63750000000000018</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <f t="shared" si="2"/>
         <v>-54.375</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <f t="shared" si="2"/>
         <v>-3.375</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <f t="shared" si="3"/>
         <v>0.40640625000000025</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <f t="shared" si="0"/>
         <v>2956.640625</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <f t="shared" si="0"/>
         <v>11.390625</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <f t="shared" ref="K4:K10" si="4">E7/H$13</f>
         <v>-2.0346680175288361</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="24">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -1121,48 +1131,48 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>5.5</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>150</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>8</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f t="shared" si="2"/>
         <v>-0.13750000000000018</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <f t="shared" si="2"/>
         <v>-4.375</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <f t="shared" si="2"/>
         <v>-1.375</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <f t="shared" si="3"/>
         <v>1.8906250000000048E-2</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <f t="shared" si="0"/>
         <v>19.140625</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <f t="shared" si="0"/>
         <v>1.890625</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <f t="shared" si="4"/>
         <v>-0.43884996456504349</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="24">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -1171,48 +1181,48 @@
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>5.42</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>130</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>7</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <f t="shared" si="2"/>
         <v>-0.21750000000000025</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <f t="shared" si="2"/>
         <v>-24.375</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <f t="shared" si="2"/>
         <v>-2.375</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <f t="shared" si="3"/>
         <v>4.7306250000000105E-2</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <f t="shared" si="0"/>
         <v>594.140625</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <f t="shared" si="0"/>
         <v>5.640625</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <f t="shared" si="4"/>
         <v>-0.69418085303925059</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="24">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="26">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -1221,407 +1231,412 @@
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>5.75</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>150</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <v>9</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <f t="shared" si="2"/>
         <v>0.11249999999999982</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <f t="shared" si="2"/>
         <v>-4.375</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <f t="shared" si="2"/>
         <v>-0.375</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <f t="shared" si="3"/>
         <v>1.2656249999999959E-2</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <f t="shared" si="0"/>
         <v>19.140625</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <f t="shared" si="0"/>
         <v>0.140625</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <f t="shared" si="4"/>
         <v>0.35905906191685277</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="27">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="29">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="22">
+      <c r="A11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="21">
         <f>AVERAGE(B3:B10)</f>
         <v>5.6375000000000002</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <f t="shared" ref="C11:D11" si="5">AVERAGE(C3:C10)</f>
         <v>154.375</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <f t="shared" si="5"/>
         <v>9.375</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <f>SUM(E3:E10)</f>
         <v>-1.7763568394002505E-15</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <f>SUM(F3:F10)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <f>SUM(G3:G10)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21">
         <f>SUM(K3:K10)/8</f>
         <v>-7.0082828429463007E-16</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="21">
         <f t="shared" ref="L11" si="6">SUM(L3:L10)/8</f>
         <v>0</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="23">
         <f t="shared" ref="M11" si="7">SUM(M3:M10)/8</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <f>_xlfn.VAR.P(B3:B11)</f>
         <v>8.7261111111111081E-2</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <f t="shared" ref="C12:D12" si="8">VAR(C3:C11)</f>
         <v>733.984375</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <f t="shared" si="8"/>
         <v>4.484375</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24">
         <f>SUM(H3:H10)/8</f>
         <v>9.8168749999999971E-2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <f>SUM(I3:I10)/8</f>
         <v>733.984375</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="24">
         <f>SUM(J3:J10)/8</f>
         <v>4.484375</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="24">
         <f>VAR(K3:K10)</f>
         <v>1.1428571428571426</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="24">
         <f t="shared" ref="L12:M12" si="9">VAR(L3:L10)</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="26">
         <f t="shared" si="9"/>
         <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27">
         <f>SQRT(H12)</f>
         <v>0.31331892697377856</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <f t="shared" ref="I13:J13" si="10">SQRT(I12)</f>
         <v>27.092146002116554</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="27">
         <f t="shared" si="10"/>
         <v>2.117634293262177</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="30"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <f>_xlfn.VAR.P(B3:B10)</f>
         <v>9.8168749999999971E-2</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="30">
         <f>_xlfn.VAR.P(C3:C10)</f>
         <v>733.984375</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="30">
         <f>_xlfn.VAR.P(D3:D10)</f>
         <v>4.484375</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <f>H13^2</f>
         <v>9.8168749999999985E-2</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="30">
         <f t="shared" ref="I15:J15" si="11">I13^2</f>
         <v>733.984375</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="30">
         <f t="shared" si="11"/>
         <v>4.484375</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="J17" s="42" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="J17" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <f>_xlfn.COVARIANCE.P(B3:B10,B3:B10)</f>
         <v>9.8168749999999971E-2</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <f>_xlfn.COVARIANCE.P(B3:B10,C3:C10)</f>
         <v>7.7046874999999986</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <f>_xlfn.COVARIANCE.P(C3:C10,D3:D10)</f>
         <v>52.734375</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="J18" s="32" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="J18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <f>_xlfn.COVARIANCE.P(K3:K10,K3:K10)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="21">
         <f>_xlfn.COVARIANCE.P(K3:K10,L3:L10)</f>
         <v>0.70215994330406861</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="23">
         <f>_xlfn.COVARIANCE.P(L3:L10,M3:M10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="24">
         <f>_xlfn.COVARIANCE.P(C3:C10,C3:C10)</f>
         <v>733.984375</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <f>_xlfn.COVARIANCE.P(C3:C10,D3:D10)</f>
         <v>52.734375</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="25">
+      <c r="K19" s="25"/>
+      <c r="L19" s="24">
         <f>_xlfn.COVARIANCE.P(L3:L10,L3:L10)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="26">
         <f>_xlfn.COVARIANCE.P(L3:L10,M3:M10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="30">
+      <c r="B20" s="28"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="29">
         <f>_xlfn.COVARIANCE.P(D3:D10,D3:D10)</f>
         <v>4.484375</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="30">
+      <c r="K20" s="28"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="29">
         <f>_xlfn.COVARIANCE.P(M3:M10,M3:M10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <f>CORREL(B3:B10,B3:B10)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <f>CORREL(B3:B10,C3:C10)</f>
         <v>0.90766374904253866</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <f>CORREL(B3:B10,D3:D10)</f>
         <v>0.80209734302458502</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="24">
         <f>CORREL(C3:C10,C3:C10)</f>
         <v>1</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <f>CORREL(C3:C10,D3:D10)</f>
         <v>0.91917760463912912</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="30">
+      <c r="B25" s="28"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="29">
         <f>CORREL(D3:D10,D3:D10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" s="44" t="s">
-        <v>28</v>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="43" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/4_기타/통계의 이해.xlsx
+++ b/4_기타/통계의 이해.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조근하\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E3EED-373F-4BE5-8808-E83FAA258B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4873333D-1D07-4286-B82C-C0E1ED425A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D98E4919-A57D-430A-8ED3-41A15F0FA1B2}"/>
   </bookViews>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3181E06-5230-49D5-A1EA-EEA38C34AEF3}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
